--- a/src/assets/faang.xlsx
+++ b/src/assets/faang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F7950-8049-4A4A-88E1-03EF565EECB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198CAA8-266D-8745-BBBC-79398A17B046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
   </bookViews>
   <sheets>
     <sheet name="faang" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>Alias</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Illumina MiSeq</t>
+  </si>
+  <si>
+    <t>Analysis Version</t>
   </si>
 </sst>
 </file>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCF971-7D08-D749-9B35-64EAEF14B736}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,10 +808,11 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,66 +832,69 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="E16" s="3"/>
     </row>
@@ -1613,7 +1620,7 @@
           <x14:formula1>
             <xm:f>faang_field_values!$A$3:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G201</xm:sqref>
+          <xm:sqref>H2:H201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
